--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.79549166666667</v>
+        <v>4.922976999999999</v>
       </c>
       <c r="H2">
-        <v>38.386475</v>
+        <v>14.768931</v>
       </c>
       <c r="I2">
-        <v>0.5145949251267348</v>
+        <v>0.2897120038548413</v>
       </c>
       <c r="J2">
-        <v>0.5145949251267349</v>
+        <v>0.2897120038548412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1743356666666667</v>
+        <v>0.3822983333333334</v>
       </c>
       <c r="N2">
-        <v>0.523007</v>
+        <v>1.146895</v>
       </c>
       <c r="O2">
-        <v>0.02303006925000699</v>
+        <v>0.04915201160487953</v>
       </c>
       <c r="P2">
-        <v>0.02303006925000699</v>
+        <v>0.04915201160487953</v>
       </c>
       <c r="Q2">
-        <v>2.230710570036111</v>
+        <v>1.882045902138333</v>
       </c>
       <c r="R2">
-        <v>20.076395130325</v>
+        <v>16.938413119245</v>
       </c>
       <c r="S2">
-        <v>0.01185115676137086</v>
+        <v>0.01423992777554606</v>
       </c>
       <c r="T2">
-        <v>0.01185115676137087</v>
+        <v>0.01423992777554606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.79549166666667</v>
+        <v>4.922976999999999</v>
       </c>
       <c r="H3">
-        <v>38.386475</v>
+        <v>14.768931</v>
       </c>
       <c r="I3">
-        <v>0.5145949251267348</v>
+        <v>0.2897120038548413</v>
       </c>
       <c r="J3">
-        <v>0.5145949251267349</v>
+        <v>0.2897120038548412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.204147000000001</v>
       </c>
       <c r="O3">
-        <v>0.3172271198994089</v>
+        <v>0.3087451919724631</v>
       </c>
       <c r="P3">
-        <v>0.3172271198994089</v>
+        <v>0.3087451919724631</v>
       </c>
       <c r="Q3">
-        <v>30.72686763464722</v>
+        <v>11.82194999520633</v>
       </c>
       <c r="R3">
-        <v>276.541808711825</v>
+        <v>106.397549956857</v>
       </c>
       <c r="S3">
-        <v>0.163243466012806</v>
+        <v>0.08944718824688996</v>
       </c>
       <c r="T3">
-        <v>0.1632434660128061</v>
+        <v>0.08944718824688994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.79549166666667</v>
+        <v>4.922976999999999</v>
       </c>
       <c r="H4">
-        <v>38.386475</v>
+        <v>14.768931</v>
       </c>
       <c r="I4">
-        <v>0.5145949251267348</v>
+        <v>0.2897120038548413</v>
       </c>
       <c r="J4">
-        <v>0.5145949251267349</v>
+        <v>0.2897120038548412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>14.982591</v>
       </c>
       <c r="O4">
-        <v>0.6597428108505842</v>
+        <v>0.6421027964226573</v>
       </c>
       <c r="P4">
-        <v>0.6597428108505842</v>
+        <v>0.6421027964226573</v>
       </c>
       <c r="Q4">
-        <v>63.90320609519166</v>
+        <v>24.586316964469</v>
       </c>
       <c r="R4">
-        <v>575.128854856725</v>
+        <v>221.276852680221</v>
       </c>
       <c r="S4">
-        <v>0.3395003023525579</v>
+        <v>0.1860248878324053</v>
       </c>
       <c r="T4">
-        <v>0.339500302352558</v>
+        <v>0.1860248878324053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>29.411688</v>
       </c>
       <c r="I5">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="J5">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1743356666666667</v>
+        <v>0.3822983333333334</v>
       </c>
       <c r="N5">
-        <v>0.523007</v>
+        <v>1.146895</v>
       </c>
       <c r="O5">
-        <v>0.02303006925000699</v>
+        <v>0.04915201160487953</v>
       </c>
       <c r="P5">
-        <v>0.02303006925000699</v>
+        <v>0.04915201160487953</v>
       </c>
       <c r="Q5">
-        <v>1.709168745090667</v>
+        <v>3.748013100973334</v>
       </c>
       <c r="R5">
-        <v>15.382518705816</v>
+        <v>33.73211790876</v>
       </c>
       <c r="S5">
-        <v>0.009080347312550328</v>
+        <v>0.02835820093389934</v>
       </c>
       <c r="T5">
-        <v>0.00908034731255033</v>
+        <v>0.02835820093389934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>29.411688</v>
       </c>
       <c r="I6">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="J6">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.204147000000001</v>
       </c>
       <c r="O6">
-        <v>0.3172271198994089</v>
+        <v>0.3087451919724631</v>
       </c>
       <c r="P6">
-        <v>0.3172271198994089</v>
+        <v>0.3087451919724631</v>
       </c>
       <c r="Q6">
         <v>23.54290265223734</v>
@@ -818,10 +818,10 @@
         <v>211.886123870136</v>
       </c>
       <c r="S6">
-        <v>0.1250770197161176</v>
+        <v>0.1781302108591878</v>
       </c>
       <c r="T6">
-        <v>0.1250770197161176</v>
+        <v>0.1781302108591878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>29.411688</v>
       </c>
       <c r="I7">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="J7">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>14.982591</v>
       </c>
       <c r="O7">
-        <v>0.6597428108505842</v>
+        <v>0.6421027964226573</v>
       </c>
       <c r="P7">
-        <v>0.6597428108505842</v>
+        <v>0.6421027964226573</v>
       </c>
       <c r="Q7">
         <v>48.962587991512</v>
@@ -880,10 +880,10 @@
         <v>440.663291923608</v>
       </c>
       <c r="S7">
-        <v>0.2601248738963163</v>
+        <v>0.3704605269779987</v>
       </c>
       <c r="T7">
-        <v>0.2601248738963164</v>
+        <v>0.3704605269779987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>6.797355</v>
       </c>
       <c r="I8">
-        <v>0.0911228339482809</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="J8">
-        <v>0.09112283394828093</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1743356666666667</v>
+        <v>0.3822983333333334</v>
       </c>
       <c r="N8">
-        <v>0.523007</v>
+        <v>1.146895</v>
       </c>
       <c r="O8">
-        <v>0.02303006925000699</v>
+        <v>0.04915201160487953</v>
       </c>
       <c r="P8">
-        <v>0.02303006925000699</v>
+        <v>0.04915201160487953</v>
       </c>
       <c r="Q8">
-        <v>0.3950071384983333</v>
+        <v>0.8662058291916668</v>
       </c>
       <c r="R8">
-        <v>3.555064246485</v>
+        <v>7.795852462725001</v>
       </c>
       <c r="S8">
-        <v>0.002098565176085797</v>
+        <v>0.006553882895434133</v>
       </c>
       <c r="T8">
-        <v>0.002098565176085798</v>
+        <v>0.006553882895434133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>6.797355</v>
       </c>
       <c r="I9">
-        <v>0.0911228339482809</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="J9">
-        <v>0.09112283394828093</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.204147000000001</v>
       </c>
       <c r="O9">
-        <v>0.3172271198994089</v>
+        <v>0.3087451919724631</v>
       </c>
       <c r="P9">
-        <v>0.3172271198994089</v>
+        <v>0.3087451919724631</v>
       </c>
       <c r="Q9">
-        <v>5.441016070131667</v>
+        <v>5.441016070131668</v>
       </c>
       <c r="R9">
-        <v>48.969144631185</v>
+        <v>48.96914463118501</v>
       </c>
       <c r="S9">
-        <v>0.02890663417048523</v>
+        <v>0.04116779286638544</v>
       </c>
       <c r="T9">
-        <v>0.02890663417048524</v>
+        <v>0.04116779286638544</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>6.797355</v>
       </c>
       <c r="I10">
-        <v>0.0911228339482809</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="J10">
-        <v>0.09112283394828093</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>14.982591</v>
       </c>
       <c r="O10">
-        <v>0.6597428108505842</v>
+        <v>0.6421027964226573</v>
       </c>
       <c r="P10">
-        <v>0.6597428108505842</v>
+        <v>0.6421027964226573</v>
       </c>
       <c r="Q10">
         <v>11.315776649645</v>
@@ -1066,10 +1066,10 @@
         <v>101.841989846805</v>
       </c>
       <c r="S10">
-        <v>0.06011763460170987</v>
+        <v>0.08561738161225341</v>
       </c>
       <c r="T10">
-        <v>0.06011763460170989</v>
+        <v>0.08561738161225341</v>
       </c>
     </row>
   </sheetData>
